--- a/rhla_analysis/rhla1_3_exp_result/k10.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k10.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.008932750996559215</v>
+        <v>0.00893275099655917</v>
       </c>
       <c r="B2" t="n">
         <v>1.03627019547148</v>
@@ -466,12 +466,12 @@
         <v>0.1986359761295823</v>
       </c>
       <c r="D2" t="n">
-        <v>116.0079572206411</v>
+        <v>116.0079572206417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.01248372835213391</v>
+        <v>0.01248372835213383</v>
       </c>
       <c r="B3" t="n">
         <v>1.028692414565541</v>
@@ -480,12 +480,12 @@
         <v>0.2058823529411765</v>
       </c>
       <c r="D3" t="n">
-        <v>82.40265932971069</v>
+        <v>82.40265932971121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.003929068165870512</v>
+        <v>0.003929068165870514</v>
       </c>
       <c r="B4" t="n">
         <v>1.009389388136922</v>
@@ -494,12 +494,12 @@
         <v>0.2178175618073316</v>
       </c>
       <c r="D4" t="n">
-        <v>256.9029972309693</v>
+        <v>256.9029972309691</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.008861224763660734</v>
+        <v>0.00886122476366071</v>
       </c>
       <c r="B5" t="n">
         <v>0.9930135782386478</v>
@@ -508,12 +508,12 @@
         <v>0.1973572037510656</v>
       </c>
       <c r="D5" t="n">
-        <v>112.0627909485975</v>
+        <v>112.0627909485978</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.009816426491165734</v>
+        <v>0.00981642649116567</v>
       </c>
       <c r="B6" t="n">
         <v>0.9769522825151341</v>
@@ -522,26 +522,26 @@
         <v>0.2054560954816709</v>
       </c>
       <c r="D6" t="n">
-        <v>99.52219205169412</v>
+        <v>99.52219205169477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.005182140398300496</v>
+        <v>0.005182140398300463</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9961864635000404</v>
+        <v>0.9961864635000405</v>
       </c>
       <c r="C7" t="n">
         <v>0.2092924126172208</v>
       </c>
       <c r="D7" t="n">
-        <v>192.2345569461499</v>
+        <v>192.2345569461511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01103447446475642</v>
+        <v>0.01103447446475651</v>
       </c>
       <c r="B8" t="n">
         <v>1.012706841451246</v>
@@ -550,12 +550,12 @@
         <v>0.20076726342711</v>
       </c>
       <c r="D8" t="n">
-        <v>91.77662648871801</v>
+        <v>91.77662648871721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01158933605872707</v>
+        <v>0.01158933605872716</v>
       </c>
       <c r="B9" t="n">
         <v>0.9775247340776221</v>
@@ -564,12 +564,12 @@
         <v>0.1986359761295823</v>
       </c>
       <c r="D9" t="n">
-        <v>84.34691419113007</v>
+        <v>84.34691419112944</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.009937513044417482</v>
+        <v>0.009937513044417392</v>
       </c>
       <c r="B10" t="n">
         <v>1.004772417254912</v>
@@ -578,21 +578,21 @@
         <v>0.2131287297527707</v>
       </c>
       <c r="D10" t="n">
-        <v>101.1090413430305</v>
+        <v>101.1090413430314</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.007099387486549033</v>
+        <v>0.007099387486549008</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9992034601650269</v>
+        <v>0.9992034601650268</v>
       </c>
       <c r="C11" t="n">
         <v>0.1947996589940324</v>
       </c>
       <c r="D11" t="n">
-        <v>140.7450237162267</v>
+        <v>140.7450237162272</v>
       </c>
     </row>
   </sheetData>
